--- a/Data/data_validate.xlsx
+++ b/Data/data_validate.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Data/data_validate.xlsx
+++ b/Data/data_validate.xlsx
@@ -1332,7 +1332,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | GENDER: exclude 4 invalid records | SALARY: exclude 4 invalid records</t>
+          <t xml:space="preserve"> | GENDER: exclude 4 invalid records | SALARY: exclude 5 invalid records</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1404,7 +1404,11 @@
       <c r="Q13" s="2" t="n">
         <v>42007</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> | SALARY: exclude 5 invalid records</t>
+        </is>
+      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
@@ -1474,7 +1478,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | SALARY: exclude 4 invalid records</t>
+          <t xml:space="preserve"> | SALARY: exclude 5 invalid records</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1546,7 +1550,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | SALARY: exclude 4 invalid records</t>
+          <t xml:space="preserve"> | SALARY: exclude 5 invalid records</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1618,7 +1622,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | SALARY: exclude 4 invalid records</t>
+          <t xml:space="preserve"> | SALARY: exclude 5 invalid records</t>
         </is>
       </c>
       <c r="S16" t="n">
